--- a/src/test/resource/output_Excell/poi-generated-file.xlsx
+++ b/src/test/resource/output_Excell/poi-generated-file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>Salary</t>
-  </si>
-  <si>
-    <t>Thomas cook</t>
-  </si>
-  <si>
-    <t>thomas@example.com</t>
-  </si>
-  <si>
-    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -93,10 +84,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.74609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.64453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -114,143 +105,83 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2"/>
       <c r="D2" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="2"/>
       <c r="D6" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="2"/>
       <c r="D7" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="2"/>
       <c r="D8" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="2"/>
       <c r="D9" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="2"/>
       <c r="D10" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>6</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="2"/>
       <c r="D11" t="n">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
